--- a/inst/extdata/norway_locations.xlsx
+++ b/inst/extdata/norway_locations.xlsx
@@ -868,6 +868,9 @@
     <t xml:space="preserve">Buskerud</t>
   </si>
   <si>
+    <t xml:space="preserve">Sør</t>
+  </si>
+  <si>
     <t xml:space="preserve">municip3006</t>
   </si>
   <si>
@@ -1331,9 +1334,6 @@
   </si>
   <si>
     <t xml:space="preserve">region4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sør</t>
   </si>
   <si>
     <t xml:space="preserve">municip4202</t>
@@ -3897,10 +3897,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J733"/>
+  <dimension ref="A1:J1339"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A714" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F724" activeCellId="0" sqref="F724"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A607" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J610" activeCellId="0" sqref="J610"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6547,10 +6547,10 @@
         <v>15</v>
       </c>
       <c r="J91" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="n">
         <v>1838</v>
       </c>
@@ -6558,13 +6558,13 @@
         <v>2019</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G92" s="0" t="s">
         <v>280</v>
@@ -6576,10 +6576,10 @@
         <v>15</v>
       </c>
       <c r="J92" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="n">
         <v>1977</v>
       </c>
@@ -6587,13 +6587,13 @@
         <v>2019</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G93" s="0" t="s">
         <v>280</v>
@@ -6605,10 +6605,10 @@
         <v>15</v>
       </c>
       <c r="J93" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="n">
         <v>1977</v>
       </c>
@@ -6616,13 +6616,13 @@
         <v>2019</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G94" s="0" t="s">
         <v>280</v>
@@ -6634,10 +6634,10 @@
         <v>15</v>
       </c>
       <c r="J94" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="n">
         <v>1905</v>
       </c>
@@ -6645,13 +6645,13 @@
         <v>2019</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G95" s="0" t="s">
         <v>280</v>
@@ -6663,10 +6663,10 @@
         <v>15</v>
       </c>
       <c r="J95" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="n">
         <v>1838</v>
       </c>
@@ -6674,10 +6674,10 @@
         <v>2019</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F96" s="0" t="s">
         <v>117</v>
@@ -6692,10 +6692,10 @@
         <v>15</v>
       </c>
       <c r="J96" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="n">
         <v>1838</v>
       </c>
@@ -6703,13 +6703,13 @@
         <v>2019</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G97" s="0" t="s">
         <v>280</v>
@@ -6721,10 +6721,10 @@
         <v>15</v>
       </c>
       <c r="J97" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="n">
         <v>1897</v>
       </c>
@@ -6732,13 +6732,13 @@
         <v>2019</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G98" s="0" t="s">
         <v>280</v>
@@ -6750,10 +6750,10 @@
         <v>15</v>
       </c>
       <c r="J98" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="n">
         <v>1838</v>
       </c>
@@ -6761,13 +6761,13 @@
         <v>2019</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G99" s="0" t="s">
         <v>280</v>
@@ -6779,10 +6779,10 @@
         <v>15</v>
       </c>
       <c r="J99" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="n">
         <v>1877</v>
       </c>
@@ -6790,13 +6790,13 @@
         <v>2019</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G100" s="0" t="s">
         <v>280</v>
@@ -6808,10 +6808,10 @@
         <v>15</v>
       </c>
       <c r="J100" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="n">
         <v>1838</v>
       </c>
@@ -6819,13 +6819,13 @@
         <v>2019</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G101" s="0" t="s">
         <v>280</v>
@@ -6837,10 +6837,10 @@
         <v>15</v>
       </c>
       <c r="J101" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="n">
         <v>1901</v>
       </c>
@@ -6848,13 +6848,13 @@
         <v>2019</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G102" s="0" t="s">
         <v>280</v>
@@ -6866,10 +6866,10 @@
         <v>15</v>
       </c>
       <c r="J102" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="n">
         <v>1838</v>
       </c>
@@ -6877,13 +6877,13 @@
         <v>2019</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G103" s="0" t="s">
         <v>280</v>
@@ -6895,10 +6895,10 @@
         <v>15</v>
       </c>
       <c r="J103" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="n">
         <v>1885</v>
       </c>
@@ -6906,13 +6906,13 @@
         <v>2019</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G104" s="0" t="s">
         <v>280</v>
@@ -6924,10 +6924,10 @@
         <v>15</v>
       </c>
       <c r="J104" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="n">
         <v>1885</v>
       </c>
@@ -6938,10 +6938,10 @@
         <v>277</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F105" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G105" s="0" t="s">
         <v>280</v>
@@ -6953,10 +6953,10 @@
         <v>15</v>
       </c>
       <c r="J105" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="n">
         <v>1838</v>
       </c>
@@ -6964,13 +6964,13 @@
         <v>2019</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G106" s="0" t="s">
         <v>280</v>
@@ -6982,10 +6982,10 @@
         <v>15</v>
       </c>
       <c r="J106" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="n">
         <v>1838</v>
       </c>
@@ -6996,10 +6996,10 @@
         <v>85</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G107" s="0" t="s">
         <v>280</v>
@@ -7011,10 +7011,10 @@
         <v>15</v>
       </c>
       <c r="J107" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="n">
         <v>1838</v>
       </c>
@@ -7025,10 +7025,10 @@
         <v>85</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G108" s="0" t="s">
         <v>280</v>
@@ -7040,10 +7040,10 @@
         <v>15</v>
       </c>
       <c r="J108" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="n">
         <v>1838</v>
       </c>
@@ -7051,13 +7051,13 @@
         <v>2019</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G109" s="0" t="s">
         <v>280</v>
@@ -7069,10 +7069,10 @@
         <v>15</v>
       </c>
       <c r="J109" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="n">
         <v>1838</v>
       </c>
@@ -7080,13 +7080,13 @@
         <v>2019</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G110" s="0" t="s">
         <v>280</v>
@@ -7098,10 +7098,10 @@
         <v>15</v>
       </c>
       <c r="J110" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="n">
         <v>1962</v>
       </c>
@@ -7109,13 +7109,13 @@
         <v>2019</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G111" s="0" t="s">
         <v>280</v>
@@ -7127,10 +7127,10 @@
         <v>15</v>
       </c>
       <c r="J111" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="n">
         <v>1988</v>
       </c>
@@ -7138,28 +7138,28 @@
         <v>2019</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F112" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G112" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H112" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I112" s="0" t="s">
         <v>15</v>
       </c>
       <c r="J112" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="n">
         <v>1838</v>
       </c>
@@ -7167,28 +7167,28 @@
         <v>2017</v>
       </c>
       <c r="C113" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="E113" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="F113" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="G113" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="H113" s="0" t="s">
         <v>343</v>
       </c>
-      <c r="E113" s="0" t="s">
-        <v>344</v>
-      </c>
-      <c r="F113" s="0" t="s">
-        <v>345</v>
-      </c>
-      <c r="G113" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="H113" s="0" t="s">
-        <v>342</v>
-      </c>
       <c r="I113" s="0" t="s">
         <v>15</v>
       </c>
       <c r="J113" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="n">
         <v>1988</v>
       </c>
@@ -7196,28 +7196,28 @@
         <v>2019</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F114" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H114" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I114" s="0" t="s">
         <v>15</v>
       </c>
       <c r="J114" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="n">
         <v>1838</v>
       </c>
@@ -7225,28 +7225,28 @@
         <v>2016</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F115" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H115" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I115" s="0" t="s">
         <v>15</v>
       </c>
       <c r="J115" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="n">
         <v>1988</v>
       </c>
@@ -7254,28 +7254,28 @@
         <v>2017</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F116" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G116" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H116" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I116" s="0" t="s">
         <v>15</v>
       </c>
       <c r="J116" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="n">
         <v>2017</v>
       </c>
@@ -7283,28 +7283,28 @@
         <v>2019</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H117" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I117" s="0" t="s">
         <v>15</v>
       </c>
       <c r="J117" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="n">
         <v>1964</v>
       </c>
@@ -7315,25 +7315,25 @@
         <v>277</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F118" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G118" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H118" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I118" s="0" t="s">
         <v>15</v>
       </c>
       <c r="J118" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="n">
         <v>1838</v>
       </c>
@@ -7341,28 +7341,28 @@
         <v>2019</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F119" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H119" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I119" s="0" t="s">
         <v>15</v>
       </c>
       <c r="J119" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="n">
         <v>1838</v>
       </c>
@@ -7370,28 +7370,28 @@
         <v>2017</v>
       </c>
       <c r="C120" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="E120" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="F120" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="G120" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="H120" s="0" t="s">
         <v>343</v>
       </c>
-      <c r="E120" s="0" t="s">
-        <v>361</v>
-      </c>
-      <c r="F120" s="0" t="s">
-        <v>362</v>
-      </c>
-      <c r="G120" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="H120" s="0" t="s">
-        <v>342</v>
-      </c>
       <c r="I120" s="0" t="s">
         <v>15</v>
       </c>
       <c r="J120" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="n">
         <v>2002</v>
       </c>
@@ -7399,28 +7399,28 @@
         <v>2019</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F121" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H121" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I121" s="0" t="s">
         <v>15</v>
       </c>
       <c r="J121" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="n">
         <v>1838</v>
       </c>
@@ -7428,28 +7428,28 @@
         <v>2016</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F122" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G122" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H122" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I122" s="0" t="s">
         <v>15</v>
       </c>
       <c r="J122" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="n">
         <v>1838</v>
       </c>
@@ -7457,28 +7457,28 @@
         <v>2016</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G123" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H123" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I123" s="0" t="s">
         <v>15</v>
       </c>
       <c r="J123" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="n">
         <v>1838</v>
       </c>
@@ -7486,28 +7486,28 @@
         <v>2017</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F124" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G124" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H124" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I124" s="0" t="s">
         <v>15</v>
       </c>
       <c r="J124" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="n">
         <v>1838</v>
       </c>
@@ -7515,28 +7515,28 @@
         <v>2017</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F125" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G125" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H125" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I125" s="0" t="s">
         <v>15</v>
       </c>
       <c r="J125" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="n">
         <v>1838</v>
       </c>
@@ -7544,28 +7544,28 @@
         <v>2017</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F126" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G126" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H126" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I126" s="0" t="s">
         <v>15</v>
       </c>
       <c r="J126" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="n">
         <v>1838</v>
       </c>
@@ -7573,28 +7573,28 @@
         <v>2019</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F127" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G127" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H127" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I127" s="0" t="s">
         <v>15</v>
       </c>
       <c r="J127" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="n">
         <v>1838</v>
       </c>
@@ -7602,28 +7602,28 @@
         <v>2019</v>
       </c>
       <c r="C128" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="E128" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="F128" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="G128" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="H128" s="0" t="s">
         <v>381</v>
       </c>
-      <c r="E128" s="0" t="s">
-        <v>382</v>
-      </c>
-      <c r="F128" s="0" t="s">
-        <v>383</v>
-      </c>
-      <c r="G128" s="0" t="s">
-        <v>379</v>
-      </c>
-      <c r="H128" s="0" t="s">
-        <v>380</v>
-      </c>
       <c r="I128" s="0" t="s">
         <v>15</v>
       </c>
       <c r="J128" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="n">
         <v>1913</v>
       </c>
@@ -7631,28 +7631,28 @@
         <v>2019</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E129" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F129" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G129" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H129" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I129" s="0" t="s">
         <v>15</v>
       </c>
       <c r="J129" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="n">
         <v>1838</v>
       </c>
@@ -7660,28 +7660,28 @@
         <v>2019</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E130" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F130" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G130" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H130" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I130" s="0" t="s">
         <v>15</v>
       </c>
       <c r="J130" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="n">
         <v>1838</v>
       </c>
@@ -7689,28 +7689,28 @@
         <v>2019</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F131" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G131" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H131" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I131" s="0" t="s">
         <v>15</v>
       </c>
       <c r="J131" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="n">
         <v>1960</v>
       </c>
@@ -7718,28 +7718,28 @@
         <v>2019</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E132" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F132" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G132" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H132" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I132" s="0" t="s">
         <v>15</v>
       </c>
       <c r="J132" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="n">
         <v>1838</v>
       </c>
@@ -7747,28 +7747,28 @@
         <v>2019</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E133" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F133" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G133" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H133" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I133" s="0" t="s">
         <v>15</v>
       </c>
       <c r="J133" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="n">
         <v>1964</v>
       </c>
@@ -7776,28 +7776,28 @@
         <v>2019</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E134" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F134" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G134" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H134" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I134" s="0" t="s">
         <v>15</v>
       </c>
       <c r="J134" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="n">
         <v>1838</v>
       </c>
@@ -7805,28 +7805,28 @@
         <v>2019</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F135" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G135" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H135" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I135" s="0" t="s">
         <v>15</v>
       </c>
       <c r="J135" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="n">
         <v>1838</v>
       </c>
@@ -7834,28 +7834,28 @@
         <v>2019</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E136" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F136" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G136" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H136" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I136" s="0" t="s">
         <v>15</v>
       </c>
       <c r="J136" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="n">
         <v>1838</v>
       </c>
@@ -7863,28 +7863,28 @@
         <v>2019</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E137" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F137" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G137" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H137" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I137" s="0" t="s">
         <v>15</v>
       </c>
       <c r="J137" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="n">
         <v>1838</v>
       </c>
@@ -7892,28 +7892,28 @@
         <v>2019</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E138" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F138" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G138" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H138" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I138" s="0" t="s">
         <v>15</v>
       </c>
       <c r="J138" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="n">
         <v>1838</v>
       </c>
@@ -7921,28 +7921,28 @@
         <v>2019</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E139" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F139" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G139" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H139" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I139" s="0" t="s">
         <v>15</v>
       </c>
       <c r="J139" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="n">
         <v>1838</v>
       </c>
@@ -7950,28 +7950,28 @@
         <v>2019</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E140" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F140" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G140" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H140" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I140" s="0" t="s">
         <v>15</v>
       </c>
       <c r="J140" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="n">
         <v>1838</v>
       </c>
@@ -7979,28 +7979,28 @@
         <v>2019</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E141" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F141" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G141" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H141" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I141" s="0" t="s">
         <v>15</v>
       </c>
       <c r="J141" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="n">
         <v>1838</v>
       </c>
@@ -8008,28 +8008,28 @@
         <v>2019</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E142" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F142" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G142" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H142" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I142" s="0" t="s">
         <v>15</v>
       </c>
       <c r="J142" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="n">
         <v>1964</v>
       </c>
@@ -8037,28 +8037,28 @@
         <v>2019</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E143" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F143" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G143" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H143" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I143" s="0" t="s">
         <v>15</v>
       </c>
       <c r="J143" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="n">
         <v>1838</v>
       </c>
@@ -8066,28 +8066,28 @@
         <v>2019</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E144" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F144" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G144" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H144" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I144" s="0" t="s">
         <v>15</v>
       </c>
       <c r="J144" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="n">
         <v>1838</v>
       </c>
@@ -8095,25 +8095,25 @@
         <v>2019</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E145" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F145" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G145" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H145" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="I145" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J145" s="0" t="s">
-        <v>437</v>
+        <v>282</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8133,16 +8133,16 @@
         <v>440</v>
       </c>
       <c r="G146" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H146" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="I146" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J146" s="0" t="s">
-        <v>437</v>
+        <v>282</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8162,16 +8162,16 @@
         <v>443</v>
       </c>
       <c r="G147" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H147" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="I147" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J147" s="0" t="s">
-        <v>437</v>
+        <v>282</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8191,16 +8191,16 @@
         <v>446</v>
       </c>
       <c r="G148" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H148" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="I148" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J148" s="0" t="s">
-        <v>437</v>
+        <v>282</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8220,16 +8220,16 @@
         <v>449</v>
       </c>
       <c r="G149" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H149" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="I149" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J149" s="0" t="s">
-        <v>437</v>
+        <v>282</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8249,16 +8249,16 @@
         <v>452</v>
       </c>
       <c r="G150" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H150" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="I150" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J150" s="0" t="s">
-        <v>437</v>
+        <v>282</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8278,16 +8278,16 @@
         <v>455</v>
       </c>
       <c r="G151" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H151" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="I151" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J151" s="0" t="s">
-        <v>437</v>
+        <v>282</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8307,16 +8307,16 @@
         <v>458</v>
       </c>
       <c r="G152" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H152" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="I152" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J152" s="0" t="s">
-        <v>437</v>
+        <v>282</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8336,16 +8336,16 @@
         <v>461</v>
       </c>
       <c r="G153" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H153" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="I153" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J153" s="0" t="s">
-        <v>437</v>
+        <v>282</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8365,16 +8365,16 @@
         <v>464</v>
       </c>
       <c r="G154" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H154" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="I154" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J154" s="0" t="s">
-        <v>437</v>
+        <v>282</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8394,16 +8394,16 @@
         <v>467</v>
       </c>
       <c r="G155" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H155" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="I155" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J155" s="0" t="s">
-        <v>437</v>
+        <v>282</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8423,16 +8423,16 @@
         <v>470</v>
       </c>
       <c r="G156" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H156" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="I156" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J156" s="0" t="s">
-        <v>437</v>
+        <v>282</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8452,16 +8452,16 @@
         <v>473</v>
       </c>
       <c r="G157" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H157" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="I157" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J157" s="0" t="s">
-        <v>437</v>
+        <v>282</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8481,16 +8481,16 @@
         <v>476</v>
       </c>
       <c r="G158" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H158" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="I158" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J158" s="0" t="s">
-        <v>437</v>
+        <v>282</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8510,16 +8510,16 @@
         <v>479</v>
       </c>
       <c r="G159" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H159" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="I159" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J159" s="0" t="s">
-        <v>437</v>
+        <v>282</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8545,10 +8545,10 @@
         <v>484</v>
       </c>
       <c r="I160" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J160" s="0" t="s">
-        <v>437</v>
+        <v>282</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8574,10 +8574,10 @@
         <v>484</v>
       </c>
       <c r="I161" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J161" s="0" t="s">
-        <v>437</v>
+        <v>282</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8603,10 +8603,10 @@
         <v>484</v>
       </c>
       <c r="I162" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J162" s="0" t="s">
-        <v>437</v>
+        <v>282</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8632,10 +8632,10 @@
         <v>484</v>
       </c>
       <c r="I163" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J163" s="0" t="s">
-        <v>437</v>
+        <v>282</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8661,10 +8661,10 @@
         <v>484</v>
       </c>
       <c r="I164" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J164" s="0" t="s">
-        <v>437</v>
+        <v>282</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8690,10 +8690,10 @@
         <v>484</v>
       </c>
       <c r="I165" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J165" s="0" t="s">
-        <v>437</v>
+        <v>282</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8719,10 +8719,10 @@
         <v>484</v>
       </c>
       <c r="I166" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J166" s="0" t="s">
-        <v>437</v>
+        <v>282</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8748,10 +8748,10 @@
         <v>484</v>
       </c>
       <c r="I167" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J167" s="0" t="s">
-        <v>437</v>
+        <v>282</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8777,10 +8777,10 @@
         <v>484</v>
       </c>
       <c r="I168" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J168" s="0" t="s">
-        <v>437</v>
+        <v>282</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8806,10 +8806,10 @@
         <v>484</v>
       </c>
       <c r="I169" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J169" s="0" t="s">
-        <v>437</v>
+        <v>282</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8835,10 +8835,10 @@
         <v>484</v>
       </c>
       <c r="I170" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J170" s="0" t="s">
-        <v>437</v>
+        <v>282</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8864,10 +8864,10 @@
         <v>484</v>
       </c>
       <c r="I171" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J171" s="0" t="s">
-        <v>437</v>
+        <v>282</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8893,10 +8893,10 @@
         <v>484</v>
       </c>
       <c r="I172" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J172" s="0" t="s">
-        <v>437</v>
+        <v>282</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8922,10 +8922,10 @@
         <v>484</v>
       </c>
       <c r="I173" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J173" s="0" t="s">
-        <v>437</v>
+        <v>282</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8951,10 +8951,10 @@
         <v>484</v>
       </c>
       <c r="I174" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J174" s="0" t="s">
-        <v>437</v>
+        <v>282</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11431,7 +11431,7 @@
         <v>758</v>
       </c>
       <c r="F265" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G265" s="0" t="s">
         <v>747</v>
@@ -14686,7 +14686,7 @@
         <v>1062</v>
       </c>
       <c r="F388" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G388" s="0" t="s">
         <v>980</v>
@@ -17362,19 +17362,19 @@
         <v>2019</v>
       </c>
       <c r="C487" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E487" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="F487" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="G487" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="H487" s="0" t="s">
         <v>343</v>
-      </c>
-      <c r="F487" s="0" t="s">
-        <v>345</v>
-      </c>
-      <c r="G487" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="H487" s="0" t="s">
-        <v>342</v>
       </c>
       <c r="I487" s="0" t="s">
         <v>15</v>
@@ -17394,16 +17394,16 @@
         <v>1212</v>
       </c>
       <c r="E488" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F488" s="0" t="s">
         <v>1213</v>
       </c>
       <c r="G488" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H488" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I488" s="0" t="s">
         <v>15</v>
@@ -17423,16 +17423,16 @@
         <v>1214</v>
       </c>
       <c r="E489" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F489" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G489" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H489" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I489" s="0" t="s">
         <v>15</v>
@@ -17584,10 +17584,10 @@
         <v>2020</v>
       </c>
       <c r="E496" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F496" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G496" s="0" t="s">
         <v>1215</v>
@@ -17607,10 +17607,10 @@
         <v>2020</v>
       </c>
       <c r="E497" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F497" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G497" s="0" t="s">
         <v>1215</v>
@@ -18251,10 +18251,10 @@
         <v>2020</v>
       </c>
       <c r="E525" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F525" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G525" s="0" t="s">
         <v>1215</v>
@@ -18274,10 +18274,10 @@
         <v>2020</v>
       </c>
       <c r="E526" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F526" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G526" s="0" t="s">
         <v>1215</v>
@@ -18297,7 +18297,7 @@
         <v>2020</v>
       </c>
       <c r="E527" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F527" s="0" t="s">
         <v>117</v>
@@ -18320,10 +18320,10 @@
         <v>2020</v>
       </c>
       <c r="E528" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F528" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G528" s="0" t="s">
         <v>1215</v>
@@ -18343,10 +18343,10 @@
         <v>2020</v>
       </c>
       <c r="E529" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F529" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G529" s="0" t="s">
         <v>1215</v>
@@ -18366,10 +18366,10 @@
         <v>2020</v>
       </c>
       <c r="E530" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F530" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G530" s="0" t="s">
         <v>1215</v>
@@ -18389,10 +18389,10 @@
         <v>2020</v>
       </c>
       <c r="E531" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F531" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G531" s="0" t="s">
         <v>1215</v>
@@ -18412,10 +18412,10 @@
         <v>2020</v>
       </c>
       <c r="E532" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F532" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G532" s="0" t="s">
         <v>1215</v>
@@ -18435,10 +18435,10 @@
         <v>2020</v>
       </c>
       <c r="E533" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F533" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G533" s="0" t="s">
         <v>1215</v>
@@ -18458,10 +18458,10 @@
         <v>2020</v>
       </c>
       <c r="E534" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F534" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G534" s="0" t="s">
         <v>1215</v>
@@ -18481,7 +18481,7 @@
         <v>2020</v>
       </c>
       <c r="E535" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F535" s="0" t="s">
         <v>1220</v>
@@ -18504,10 +18504,10 @@
         <v>2020</v>
       </c>
       <c r="E536" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F536" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G536" s="0" t="s">
         <v>1215</v>
@@ -18527,10 +18527,10 @@
         <v>2020</v>
       </c>
       <c r="E537" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F537" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G537" s="0" t="s">
         <v>1215</v>
@@ -18550,10 +18550,10 @@
         <v>2020</v>
       </c>
       <c r="E538" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F538" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G538" s="0" t="s">
         <v>1215</v>
@@ -18573,7 +18573,7 @@
         <v>2020</v>
       </c>
       <c r="E539" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F539" s="0" t="s">
         <v>1221</v>
@@ -19695,15 +19695,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="588" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="2" t="n">
         <v>2020</v>
       </c>
       <c r="E588" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F588" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G588" s="0" t="s">
         <v>1226</v>
@@ -19715,18 +19715,18 @@
         <v>15</v>
       </c>
       <c r="J588" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="589" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="2" t="n">
         <v>2020</v>
       </c>
       <c r="E589" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F589" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G589" s="0" t="s">
         <v>1226</v>
@@ -19738,18 +19738,18 @@
         <v>15</v>
       </c>
       <c r="J589" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="590" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="2" t="n">
         <v>2020</v>
       </c>
       <c r="E590" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F590" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G590" s="0" t="s">
         <v>1226</v>
@@ -19761,18 +19761,18 @@
         <v>15</v>
       </c>
       <c r="J590" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="591" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="2" t="n">
         <v>2020</v>
       </c>
       <c r="E591" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F591" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G591" s="0" t="s">
         <v>1226</v>
@@ -19784,10 +19784,10 @@
         <v>15</v>
       </c>
       <c r="J591" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="592" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="2" t="n">
         <v>2020</v>
       </c>
@@ -19795,7 +19795,7 @@
         <v>1214</v>
       </c>
       <c r="F592" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G592" s="0" t="s">
         <v>1226</v>
@@ -19807,18 +19807,18 @@
         <v>15</v>
       </c>
       <c r="J592" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="593" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="2" t="n">
         <v>2020</v>
       </c>
       <c r="E593" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F593" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G593" s="0" t="s">
         <v>1226</v>
@@ -19830,18 +19830,18 @@
         <v>15</v>
       </c>
       <c r="J593" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="594" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="2" t="n">
         <v>2020</v>
       </c>
       <c r="E594" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F594" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G594" s="0" t="s">
         <v>1226</v>
@@ -19853,18 +19853,18 @@
         <v>15</v>
       </c>
       <c r="J594" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="595" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="2" t="n">
         <v>2020</v>
       </c>
       <c r="E595" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F595" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G595" s="0" t="s">
         <v>1226</v>
@@ -19876,10 +19876,10 @@
         <v>15</v>
       </c>
       <c r="J595" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="596" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="2" t="n">
         <v>2020</v>
       </c>
@@ -19899,18 +19899,18 @@
         <v>15</v>
       </c>
       <c r="J596" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="597" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="2" t="n">
         <v>2020</v>
       </c>
       <c r="E597" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F597" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G597" s="0" t="s">
         <v>1226</v>
@@ -19922,18 +19922,18 @@
         <v>15</v>
       </c>
       <c r="J597" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="598" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="2" t="n">
         <v>2020</v>
       </c>
       <c r="E598" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F598" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G598" s="0" t="s">
         <v>1226</v>
@@ -19945,18 +19945,18 @@
         <v>15</v>
       </c>
       <c r="J598" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="599" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="2" t="n">
         <v>2020</v>
       </c>
       <c r="E599" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F599" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G599" s="0" t="s">
         <v>1226</v>
@@ -19968,18 +19968,18 @@
         <v>15</v>
       </c>
       <c r="J599" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="600" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="2" t="n">
         <v>2020</v>
       </c>
       <c r="E600" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F600" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G600" s="0" t="s">
         <v>1226</v>
@@ -19991,18 +19991,18 @@
         <v>15</v>
       </c>
       <c r="J600" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="601" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="2" t="n">
         <v>2020</v>
       </c>
       <c r="E601" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F601" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G601" s="0" t="s">
         <v>1226</v>
@@ -20014,15 +20014,15 @@
         <v>15</v>
       </c>
       <c r="J601" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="602" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="2" t="n">
         <v>2020</v>
       </c>
       <c r="E602" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F602" s="0" t="s">
         <v>1228</v>
@@ -20037,18 +20037,18 @@
         <v>15</v>
       </c>
       <c r="J602" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="603" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="2" t="n">
         <v>2020</v>
       </c>
       <c r="E603" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F603" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G603" s="0" t="s">
         <v>1226</v>
@@ -20060,18 +20060,18 @@
         <v>15</v>
       </c>
       <c r="J603" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="604" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="2" t="n">
         <v>2020</v>
       </c>
       <c r="E604" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F604" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G604" s="0" t="s">
         <v>1226</v>
@@ -20083,18 +20083,18 @@
         <v>15</v>
       </c>
       <c r="J604" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="605" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="2" t="n">
         <v>2020</v>
       </c>
       <c r="E605" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F605" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G605" s="0" t="s">
         <v>1226</v>
@@ -20106,18 +20106,18 @@
         <v>15</v>
       </c>
       <c r="J605" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="606" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="2" t="n">
         <v>2020</v>
       </c>
       <c r="E606" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F606" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G606" s="0" t="s">
         <v>1226</v>
@@ -20129,18 +20129,18 @@
         <v>15</v>
       </c>
       <c r="J606" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="607" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="2" t="n">
         <v>2020</v>
       </c>
       <c r="E607" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F607" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G607" s="0" t="s">
         <v>1226</v>
@@ -20152,18 +20152,18 @@
         <v>15</v>
       </c>
       <c r="J607" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="608" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="2" t="n">
         <v>2020</v>
       </c>
       <c r="E608" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F608" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G608" s="0" t="s">
         <v>1226</v>
@@ -20175,18 +20175,18 @@
         <v>15</v>
       </c>
       <c r="J608" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="609" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="2" t="n">
         <v>2020</v>
       </c>
       <c r="E609" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F609" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G609" s="0" t="s">
         <v>1226</v>
@@ -20198,18 +20198,18 @@
         <v>15</v>
       </c>
       <c r="J609" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="610" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="2" t="n">
         <v>2020</v>
       </c>
       <c r="E610" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F610" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G610" s="0" t="s">
         <v>1226</v>
@@ -20221,7 +20221,7 @@
         <v>15</v>
       </c>
       <c r="J610" s="0" t="s">
-        <v>16</v>
+        <v>282</v>
       </c>
     </row>
     <row r="611" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20229,10 +20229,10 @@
         <v>2020</v>
       </c>
       <c r="E611" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F611" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G611" s="0" t="s">
         <v>1229</v>
@@ -20241,10 +20241,10 @@
         <v>1230</v>
       </c>
       <c r="I611" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J611" s="0" t="s">
-        <v>437</v>
+        <v>282</v>
       </c>
     </row>
     <row r="612" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20264,10 +20264,10 @@
         <v>1230</v>
       </c>
       <c r="I612" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J612" s="0" t="s">
-        <v>437</v>
+        <v>282</v>
       </c>
     </row>
     <row r="613" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20287,10 +20287,10 @@
         <v>1230</v>
       </c>
       <c r="I613" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J613" s="0" t="s">
-        <v>437</v>
+        <v>282</v>
       </c>
     </row>
     <row r="614" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20310,10 +20310,10 @@
         <v>1230</v>
       </c>
       <c r="I614" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J614" s="0" t="s">
-        <v>437</v>
+        <v>282</v>
       </c>
     </row>
     <row r="615" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20333,10 +20333,10 @@
         <v>1230</v>
       </c>
       <c r="I615" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J615" s="0" t="s">
-        <v>437</v>
+        <v>282</v>
       </c>
     </row>
     <row r="616" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20356,10 +20356,10 @@
         <v>1230</v>
       </c>
       <c r="I616" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J616" s="0" t="s">
-        <v>437</v>
+        <v>282</v>
       </c>
     </row>
     <row r="617" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20379,10 +20379,10 @@
         <v>1230</v>
       </c>
       <c r="I617" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J617" s="0" t="s">
-        <v>437</v>
+        <v>282</v>
       </c>
     </row>
     <row r="618" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20402,10 +20402,10 @@
         <v>1230</v>
       </c>
       <c r="I618" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J618" s="0" t="s">
-        <v>437</v>
+        <v>282</v>
       </c>
     </row>
     <row r="619" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20425,10 +20425,10 @@
         <v>1230</v>
       </c>
       <c r="I619" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J619" s="0" t="s">
-        <v>437</v>
+        <v>282</v>
       </c>
     </row>
     <row r="620" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20448,10 +20448,10 @@
         <v>1230</v>
       </c>
       <c r="I620" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J620" s="0" t="s">
-        <v>437</v>
+        <v>282</v>
       </c>
     </row>
     <row r="621" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20471,10 +20471,10 @@
         <v>1230</v>
       </c>
       <c r="I621" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J621" s="0" t="s">
-        <v>437</v>
+        <v>282</v>
       </c>
     </row>
     <row r="622" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20494,10 +20494,10 @@
         <v>1230</v>
       </c>
       <c r="I622" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J622" s="0" t="s">
-        <v>437</v>
+        <v>282</v>
       </c>
     </row>
     <row r="623" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20517,10 +20517,10 @@
         <v>1230</v>
       </c>
       <c r="I623" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J623" s="0" t="s">
-        <v>437</v>
+        <v>282</v>
       </c>
     </row>
     <row r="624" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20540,10 +20540,10 @@
         <v>1230</v>
       </c>
       <c r="I624" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J624" s="0" t="s">
-        <v>437</v>
+        <v>282</v>
       </c>
     </row>
     <row r="625" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20563,10 +20563,10 @@
         <v>1230</v>
       </c>
       <c r="I625" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J625" s="0" t="s">
-        <v>437</v>
+        <v>282</v>
       </c>
     </row>
     <row r="626" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20586,10 +20586,10 @@
         <v>1230</v>
       </c>
       <c r="I626" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J626" s="0" t="s">
-        <v>437</v>
+        <v>282</v>
       </c>
     </row>
     <row r="627" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20609,10 +20609,10 @@
         <v>1230</v>
       </c>
       <c r="I627" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J627" s="0" t="s">
-        <v>437</v>
+        <v>282</v>
       </c>
     </row>
     <row r="628" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20632,10 +20632,10 @@
         <v>1230</v>
       </c>
       <c r="I628" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J628" s="0" t="s">
-        <v>437</v>
+        <v>282</v>
       </c>
     </row>
     <row r="629" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20655,10 +20655,10 @@
         <v>1230</v>
       </c>
       <c r="I629" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J629" s="0" t="s">
-        <v>437</v>
+        <v>282</v>
       </c>
     </row>
     <row r="630" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20678,10 +20678,10 @@
         <v>1230</v>
       </c>
       <c r="I630" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J630" s="0" t="s">
-        <v>437</v>
+        <v>282</v>
       </c>
     </row>
     <row r="631" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20701,10 +20701,10 @@
         <v>1230</v>
       </c>
       <c r="I631" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J631" s="0" t="s">
-        <v>437</v>
+        <v>282</v>
       </c>
     </row>
     <row r="632" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20724,10 +20724,10 @@
         <v>1230</v>
       </c>
       <c r="I632" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J632" s="0" t="s">
-        <v>437</v>
+        <v>282</v>
       </c>
     </row>
     <row r="633" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20747,10 +20747,10 @@
         <v>1230</v>
       </c>
       <c r="I633" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J633" s="0" t="s">
-        <v>437</v>
+        <v>282</v>
       </c>
     </row>
     <row r="634" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20770,10 +20770,10 @@
         <v>1230</v>
       </c>
       <c r="I634" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J634" s="0" t="s">
-        <v>437</v>
+        <v>282</v>
       </c>
     </row>
     <row r="635" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20793,10 +20793,10 @@
         <v>1230</v>
       </c>
       <c r="I635" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J635" s="0" t="s">
-        <v>437</v>
+        <v>282</v>
       </c>
     </row>
     <row r="636" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23053,6 +23053,8 @@
         <v>983</v>
       </c>
     </row>
+    <row r="1339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/inst/extdata/norway_locations.xlsx
+++ b/inst/extdata/norway_locations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raw996/Documents/git/fhidata/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27E52D8-91BD-E249-B843-6C79AA38B163}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0AA4139-EC72-7240-B4DA-8072FE8D2BA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6280" yWindow="460" windowWidth="25860" windowHeight="22120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4778" uniqueCount="1256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4778" uniqueCount="1257">
   <si>
     <t>year_start</t>
   </si>
@@ -3793,6 +3793,9 @@
   </si>
   <si>
     <t>Møre og Romsdal</t>
+  </si>
+  <si>
+    <t>Nesbyen</t>
   </si>
 </sst>
 </file>
@@ -4153,8 +4156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J733"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A446" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J397" sqref="J397"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18554,7 +18557,7 @@
         <v>295</v>
       </c>
       <c r="F527" t="s">
-        <v>117</v>
+        <v>1256</v>
       </c>
       <c r="G527" t="s">
         <v>1214</v>
